--- a/GroceryApplication/src/main/resources/TestData/GroceryAppdetails.xlsx
+++ b/GroceryApplication/src/main/resources/TestData/GroceryAppdetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4C9A662-DE1D-47E3-8805-9A7001E4B73C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{458FC648-E3B1-4470-8A7B-8A95C8B0F0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22464" windowHeight="7608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="7608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="CategoryPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:W24"/>
+  <oleSize ref="A1:Q24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
